--- a/multi_it/backend/web-workspace/mavenExecel/src/main/java/org/example/b_poii_jar/excelFile6.xlsx
+++ b/multi_it/backend/web-workspace/mavenExecel/src/main/java/org/example/b_poii_jar/excelFile6.xlsx
@@ -23,13 +23,13 @@
     <t>단어 길이</t>
   </si>
   <si>
-    <t>백신업계 노벨상 '박만훈상' 얀 홈그렌 교수 등 3명 선정</t>
+    <t>포스코DX, 광양에 국내 첫 제조분야 PF센터 구축</t>
   </si>
   <si>
-    <t>1일전</t>
+    <t>4시간전</t>
   </si>
   <si>
-    <t>9</t>
+    <t>7</t>
   </si>
 </sst>
 </file>
